--- a/graph/data_analysis/data_analysis.xlsx
+++ b/graph/data_analysis/data_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3132E31-42F6-42EC-AE41-41B33F22FBCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A9A7FD-987F-46FF-AA53-A8135335BA0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -123,451 +127,82 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16233366694705964"/>
+          <c:y val="5.7479857875933321E-2"/>
+          <c:w val="0.76978522343606048"/>
+          <c:h val="0.81282296291827216"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time variation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>45246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45278</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45308</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45370</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$D$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F2E7-4F91-9A35-37BF89F635FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spatial variation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>45246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45278</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45308</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45370</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$D$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F2E7-4F91-9A35-37BF89F635FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1736958272"/>
-        <c:axId val="1802437680"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1736958272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1802437680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1802437680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1736958272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="2000"/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>工作表1!$D$16:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>43627</c:v>
+                  <c:v>43617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43649</c:v>
+                  <c:v>43647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43675</c:v>
+                  <c:v>43678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43719</c:v>
+                  <c:v>43709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43747</c:v>
+                  <c:v>43739</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43782</c:v>
+                  <c:v>43770</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43810</c:v>
+                  <c:v>43800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43845</c:v>
+                  <c:v>43831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43880</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>工作表1!$D$17:$L$17</c:f>
               <c:numCache>
@@ -602,7 +237,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -618,18 +253,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1800663728"/>
         <c:axId val="1802423120"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1800663728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/m" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -651,12 +285,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -668,11 +299,8 @@
         </c:txPr>
         <c:crossAx val="1802423120"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1802423120"/>
         <c:scaling>
@@ -695,6 +323,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Histogram similarity</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3039941494813672E-2"/>
+              <c:y val="0.14823593410009325"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -711,12 +401,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -728,7 +415,7 @@
         </c:txPr>
         <c:crossAx val="1800663728"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -762,7 +449,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2000"/>
+        <a:defRPr sz="1000" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -775,7 +466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -930,12 +621,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -990,12 +678,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1041,7 +726,491 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2000"/>
+        <a:defRPr sz="1000" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15838502800953932"/>
+          <c:y val="4.8959027777777775E-2"/>
+          <c:w val="0.8269157335981594"/>
+          <c:h val="0.58180205930949835"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time variation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2E7-4F91-9A35-37BF89F635FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spatial variation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2E7-4F91-9A35-37BF89F635FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1736958272"/>
+        <c:axId val="1802437680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1736958272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/m" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1802437680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1802437680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Histogram similarity</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1736958272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -2727,22 +2896,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>547200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83962</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342898</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81343</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
+        <xdr:cNvPr id="3" name="圖表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE70D567-E048-4288-A65A-48D429994076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF73123-B867-4B42-8C3E-48956454AD9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,22 +2932,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>528150</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>17287</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>511153</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>36518</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2">
+        <xdr:cNvPr id="4" name="圖表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF73123-B867-4B42-8C3E-48956454AD9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8060EF-2325-49E4-B2B9-327CB7056D3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,23 +2967,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>494812</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>103012</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8060EF-2325-49E4-B2B9-327CB7056D3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE70D567-E048-4288-A65A-48D429994076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3117,23 +3286,26 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>45246</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2">
+        <v>45231</v>
+      </c>
+      <c r="E3" s="2">
         <v>45278</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>45308</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>45339</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>45370</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>45400</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45429</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
@@ -3144,19 +3316,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="F4">
-        <v>0.69</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
+        <v>0.36</v>
       </c>
       <c r="H4">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="I4">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
@@ -3167,19 +3342,22 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="F5">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="G5">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="H5">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="I5">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
+      </c>
+      <c r="J5">
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
@@ -3187,31 +3365,31 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>43627</v>
+        <v>43617</v>
       </c>
       <c r="E16" s="1">
-        <v>43649</v>
+        <v>43647</v>
       </c>
       <c r="F16" s="1">
-        <v>43675</v>
+        <v>43678</v>
       </c>
       <c r="G16" s="1">
-        <v>43719</v>
+        <v>43709</v>
       </c>
       <c r="H16" s="1">
-        <v>43747</v>
+        <v>43739</v>
       </c>
       <c r="I16" s="1">
-        <v>43782</v>
+        <v>43770</v>
       </c>
       <c r="J16" s="1">
-        <v>43810</v>
+        <v>43800</v>
       </c>
       <c r="K16" s="1">
-        <v>43845</v>
+        <v>43831</v>
       </c>
       <c r="L16" s="1">
-        <v>43880</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
